--- a/resources/net.xlsx
+++ b/resources/net.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaochengyi/Documents/Study/studyByCode/anki卡包/buildAnki/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6C6425E5-DD6F-B842-B02F-D9BB90A4EAB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AEFFFED4-8103-994C-985D-67C0E9BAAB35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="0" windowWidth="22580" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anki" sheetId="2" r:id="rId1"/>
+    <sheet name="HTML" sheetId="3" r:id="rId2"/>
+    <sheet name="C" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="51" uniqueCount="49">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="247" uniqueCount="203">
   <si>
     <t>ABC</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -168,14 +170,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>TCP 保证数据正确性，UDP 可能丢包</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP 保证数据顺序性，UDP 不保证</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>http 无连接、无状态是什么意思</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -221,6 +215,631 @@
   </si>
   <si>
     <t>ABCDEF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP提供可靠的服务，UDP 不保证</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP数据传输慢，UDP 数据传输快</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP 的四层协议</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络接口层 1：</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>网际层 IP2：</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输层（TCP/UDP）3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层4：http  ftp 等协议</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示在页面头部的文字是哪个标签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>script</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>font 标签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>html4 不推荐使用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>html5 废弃使用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可添加 size 等属性</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p 是什么标签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>换段的标签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不闭合标签，会怎么样</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当遇到下一个开始标签时，认为上一个标签结束了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>换段后有一个段落间距</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>br 是换行，没有段落间距</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>h1 h2 h3 的作用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变字体</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>给 seo 优化，搜索引擎中发现有过多 h 标签时，会做惩罚，有一个就可以了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img 标签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>src 属性是路径</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 是当 src 的文件不存在时，显示给用户的提示信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>width height 设置宽高</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>h1 离 body 越近越好</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 标签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>href 指向另一个页面</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>行级标签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>href 可以是本地页面，网络页面、图片文件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>target 属性：
+_blank 在新标签页打开链接；_parent 在父窗口打开链接；_self 在当前窗口打开链接；_top 目标清除所有被包含的 frame 框架</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>锚点必须先定义后使用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>锚点 &lt;a name="锚点名"&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">同一个文档中，指向锚点的位置 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="#锚点名"&gt; 跳转到本页面的锚点中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="xxx.html#锚点名"&gt; 跳转到 xxx.html 页面的锚点中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无序列表 ul</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序列表 ol</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr 是行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>td 是每一个单元格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>border 表格边框</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元格合并</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowspan 合并行，当前单元格向下合并</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>colspan 合并列，当前列向下合并</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一个 td 中写 rowspan 和 colspan，能够实现行列多重合并</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格的 bgcolor 属性</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够修改表格的背景色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够使用 red等单词</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够使用 16 进制颜色 #12ff34</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgcolor 不能使用 rgb(255,0,0) 格式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用通过 style 的 backgroud 进行设置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCEF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收集用户信息，进行人机交互操作的</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单是一个隐含的范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单元素，控件，可控制的部件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括文本框、单选按钮、列表框、图片框、复选框</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件的属性</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>value 输入(收集、设置)控件的值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>checked 复选框(单选)组默认被选中的项目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected 列表框组默认被选中的项目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>src 图片框的图片来源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>onclick 鼠标点击事件。 Disabled 禁用该控件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple 允许多选(适合普通列表框)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCEFGH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单的常见属性</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>action 记录后台的位置，将表单中的全部内容传递到 action 中对应的路径下进行处理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>method 有 get post</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name 控件名称，可重复，name 会作为参数名传递，给后端使用。Id 指定标签的唯一识别，id 一般是给前端使用的</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>textarea 多行文本框</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>row 是行数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cols 是列数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏域</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>input type="hidden"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据需要传递给后端，但是不想显示在页面上</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通列表框</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>select size=3 multiple=true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>给 select 添加 size 后，就会变成普通列表框</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加 multiple，能够实现多选，按住 ctrl 点击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐方式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>align="center" 水平对齐方式，left right justify 对行进行伸展，每行有相等的长度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>valign 垂直排列方式，top middle bottom baseline 基线对齐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式的引入方式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部样式表，在 head 中 &lt;style type="text/css"&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部样式表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签选择器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p {}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>div {}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2{}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类选择器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.className {}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景样式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroud-color  颜色值，颜色作为背景颜色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroud-image 图片路径 图片作为背景图片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroud-repeat repeat/repeat-x/repeat-y/no-repeat 背景图片的重复方向</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroud-attachment scroll/fixed 背景是否随滚动条滚动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroud-position  背景图像的起始位置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>块级元素都可以设置背景</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>形参实参</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>形参是定义函数时，参数的变量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实参是调用函数时，传入的具体的值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数被调用时，实参的值会赋予给形参</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数调用的形式是什么</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在函数名后面添加小括号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在函数名后面添加中括号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数名后的符号叫做函数调用运算符</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数执行的流程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进行函数调用后，程序的流程会转到被调用的函数处</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 传递过来的实参的值会赋给函数接收的形参</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 形参初始化完成后，将执行函数体</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 程序流遇到 return 语句时，或者执行到函数体最后的大括号时，就会从该函数跳转到调用函数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. return 中的值会被返回给执行函数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCDE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>值传递是什么</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>形参被赋予实参的值，通过值进行参数传的机制叫做值传递 pass by value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>void 是什么</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有返回值额函数类型，要声明为 void</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>void 就是空的意思</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序块中声明的变量名称，只在该程序块中通用，其它区域无效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量的名称从变量声明的位置开始，到包含该声明的程序块的最后的大括号为止。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>块作用域是什么</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件作用域是什么</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数外声明的变量标识符，其名称从声明的位置开始，到该程序的结尾都是通用的</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数原型声明 function prototype declaration</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>被调用函数如果在调用函数的后面，则需要使用函数原型声明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在调用函数的前面明确记述函数的返回值、形参</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数原型声明需要定义函数的实体</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#include </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include 能够将 &lt;stdio.h&gt; 头文件中的全部内容都读取到程序中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含库函数的函数原型声明的 stdio.h 称为头文件 header</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include 称为文件包含指令</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收数组作为形参的函数，如果不想改变数组元素，应该如何做</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在定义时，添加 const 关键词。void print_array(const int arr[], int length)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量的生存期（存储期）——自动存储期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序执行到对象声明的时候，就创建出对应的对象</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行到包含该声明的程序块结尾，对象消失</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数中不使用存储类说明符 static 而定义出的变量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不显示地今星期初始化，则对象会被初始化为不确定的值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量的生存期（存储期）——静态存储期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 static 定义出来的对象，或者在函数外声明定义出来的对象。（也就是文件作用域中的对象）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在程序开始执行的时候，也就是 main 函数执行之前的准备阶段被创建出来，在程序结束的时候消失。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象拥有短暂的生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象拥有永久的声明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不显示初始化，会自动初始化为 0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto 和 register 声明定义出来的变量，都赋予了自动存储期。auto 使用不使用是完全相同的。Register 会将变量保存到寄存器中，但是现代编译器已经是自动判断并优化存储了。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1185,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E9D6C1-049B-B74E-9F52-E147C0963876}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1320,27 +1939,241 @@
         <v>31</v>
       </c>
     </row>
+    <row r="5" spans="1:11" ht="17">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="51">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="34">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C46359A-C441-CC4D-B2E1-14E720103679}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="5" spans="1:11" ht="34">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51">
@@ -1348,48 +2181,637 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="34">
+    <row r="7" spans="1:11" ht="51">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="136">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="51">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="34">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="34">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="85">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="68">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="17">
+      <c r="B17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="34">
+      <c r="B18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="51">
+      <c r="B19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="51">
+      <c r="B20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="34">
+      <c r="B21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="17">
+      <c r="B22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="17">
+      <c r="B23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="68">
+      <c r="B24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EE887-C51C-9548-BDB8-23CA01469EBA}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="68">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="51">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="34">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="68">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="51">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="51">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="51">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="68">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="68">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
